--- a/app/config/tables/MIF/forms/MIF_LV/MIF_LV.xlsx
+++ b/app/config/tables/MIF/forms/MIF_LV/MIF_LV.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4474B55-61C6-4152-8A87-34A25DC74BD8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F71F9F46-AB02-485B-A4DC-A4AA3AAE1CAB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -543,9 +543,6 @@
     <t>20pt</t>
   </si>
   <si>
-    <t>MIFVISIT</t>
-  </si>
-  <si>
     <t>query_name</t>
   </si>
   <si>
@@ -739,6 +736,9 @@
   </si>
   <si>
     <t>MIF_LV</t>
+  </si>
+  <si>
+    <t>MIF_VISIT</t>
   </si>
 </sst>
 </file>
@@ -1152,7 +1152,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
@@ -1174,13 +1174,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>18</v>
@@ -1191,7 +1191,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1215,10 +1215,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
+        <v>232</v>
+      </c>
+      <c r="D5" s="20" t="s">
         <v>233</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1234,7 +1234,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E7" t="s">
         <v>19</v>
@@ -1299,7 +1299,7 @@
         <v>10</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>11</v>
@@ -1319,18 +1319,18 @@
         <v>156</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H3" s="20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1347,90 +1347,90 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D7" s="13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D8" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E8" t="s">
+        <v>192</v>
+      </c>
+      <c r="F8" t="s">
         <v>193</v>
-      </c>
-      <c r="F8" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D9" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D10" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E10" t="s">
+        <v>205</v>
+      </c>
+      <c r="F10" t="s">
         <v>206</v>
-      </c>
-      <c r="F10" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D11" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D12" s="13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D13" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F13" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D14" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1450,7 +1450,7 @@
         <v>135</v>
       </c>
       <c r="C17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D17" s="14"/>
     </row>
@@ -1459,10 +1459,10 @@
         <v>137</v>
       </c>
       <c r="F18" t="s">
+        <v>198</v>
+      </c>
+      <c r="I18" t="s">
         <v>199</v>
-      </c>
-      <c r="I18" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1490,9 +1490,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7656AD7B-1D25-49AF-8239-544F03B0CB49}">
   <dimension ref="A1:J72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D2:D11"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1510,58 +1510,58 @@
   <sheetData>
     <row r="1" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="C1" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="D1" s="18" t="s">
         <v>173</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="E1" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="F1" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="G1" s="18" t="s">
         <v>176</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="H1" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="H1" s="17" t="s">
-        <v>178</v>
-      </c>
       <c r="I1" s="18" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J1" s="17"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="C2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E2" s="10" t="s">
+      <c r="F2" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="G2" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="H2" s="11" t="s">
         <v>181</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>182</v>
       </c>
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
@@ -1580,234 +1580,234 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C4" t="s">
+        <v>235</v>
+      </c>
+      <c r="D4" t="s">
+        <v>235</v>
+      </c>
+      <c r="E4" t="s">
         <v>179</v>
       </c>
-      <c r="C4" t="s">
-        <v>170</v>
-      </c>
-      <c r="D4" t="s">
-        <v>170</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="F4" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="G4" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="G4" s="11" t="s">
-        <v>182</v>
-      </c>
       <c r="H4" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C5" t="s">
+        <v>231</v>
+      </c>
+      <c r="D5" t="s">
+        <v>231</v>
+      </c>
+      <c r="E5" t="s">
+        <v>179</v>
+      </c>
+      <c r="F5" t="s">
+        <v>180</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="I5" t="s">
         <v>193</v>
-      </c>
-      <c r="B5" t="s">
-        <v>179</v>
-      </c>
-      <c r="C5" t="s">
-        <v>232</v>
-      </c>
-      <c r="D5" t="s">
-        <v>232</v>
-      </c>
-      <c r="E5" t="s">
-        <v>180</v>
-      </c>
-      <c r="F5" t="s">
-        <v>181</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="I5" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C6" t="s">
+        <v>235</v>
+      </c>
+      <c r="D6" t="s">
+        <v>235</v>
+      </c>
+      <c r="E6" t="s">
         <v>179</v>
       </c>
-      <c r="C6" t="s">
-        <v>170</v>
-      </c>
-      <c r="D6" t="s">
-        <v>170</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="F6" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="G6" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="G6" s="11" t="s">
-        <v>182</v>
-      </c>
       <c r="H6" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>205</v>
+      </c>
+      <c r="B7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C7" t="s">
+        <v>235</v>
+      </c>
+      <c r="D7" t="s">
+        <v>235</v>
+      </c>
+      <c r="E7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="I7" s="10" t="s">
         <v>206</v>
-      </c>
-      <c r="B7" t="s">
-        <v>179</v>
-      </c>
-      <c r="C7" t="s">
-        <v>170</v>
-      </c>
-      <c r="D7" t="s">
-        <v>170</v>
-      </c>
-      <c r="E7" t="s">
-        <v>180</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B8" t="s">
+        <v>178</v>
+      </c>
+      <c r="C8" t="s">
+        <v>235</v>
+      </c>
+      <c r="D8" t="s">
+        <v>235</v>
+      </c>
+      <c r="E8" t="s">
         <v>179</v>
       </c>
-      <c r="C8" t="s">
-        <v>170</v>
-      </c>
-      <c r="D8" t="s">
-        <v>170</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="F8" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="G8" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="G8" s="10" t="s">
-        <v>182</v>
-      </c>
       <c r="H8" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B9" t="s">
+        <v>178</v>
+      </c>
+      <c r="C9" t="s">
+        <v>235</v>
+      </c>
+      <c r="D9" t="s">
+        <v>235</v>
+      </c>
+      <c r="E9" t="s">
         <v>179</v>
       </c>
-      <c r="C9" t="s">
-        <v>170</v>
-      </c>
-      <c r="D9" t="s">
-        <v>170</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="F9" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="G9" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="G9" s="10" t="s">
-        <v>182</v>
-      </c>
       <c r="H9" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B10" t="s">
+        <v>178</v>
+      </c>
+      <c r="C10" t="s">
+        <v>235</v>
+      </c>
+      <c r="D10" t="s">
+        <v>235</v>
+      </c>
+      <c r="E10" t="s">
         <v>179</v>
       </c>
-      <c r="C10" t="s">
-        <v>170</v>
-      </c>
-      <c r="D10" t="s">
-        <v>170</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="F10" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="G10" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="G10" s="10" t="s">
-        <v>182</v>
-      </c>
       <c r="H10" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B11" t="s">
+        <v>178</v>
+      </c>
+      <c r="C11" t="s">
+        <v>235</v>
+      </c>
+      <c r="D11" t="s">
+        <v>235</v>
+      </c>
+      <c r="E11" t="s">
         <v>179</v>
       </c>
-      <c r="C11" t="s">
-        <v>170</v>
-      </c>
-      <c r="D11" t="s">
-        <v>170</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="F11" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="G11" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="G11" s="10" t="s">
-        <v>182</v>
-      </c>
       <c r="H11" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -2140,21 +2140,21 @@
   <sheetData>
     <row r="1" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>8</v>
       </c>
       <c r="C1" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="D1" s="17" t="s">
         <v>190</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>127</v>
@@ -2164,7 +2164,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>24</v>
@@ -2174,16 +2174,16 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B4" t="s">
         <v>220</v>
-      </c>
-      <c r="B4" t="s">
-        <v>221</v>
       </c>
       <c r="C4" t="s">
         <v>127</v>
       </c>
       <c r="D4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -2216,7 +2216,7 @@
         <v>15</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>16</v>
@@ -3057,10 +3057,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B3" t="s">
         <v>209</v>
-      </c>
-      <c r="B3" t="s">
-        <v>210</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
@@ -3123,10 +3123,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C9" t="b">
         <v>0</v>
@@ -3134,7 +3134,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
@@ -3189,10 +3189,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C15" t="b">
         <v>0</v>
@@ -3277,10 +3277,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B23" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C23" t="b">
         <v>0</v>
@@ -3324,7 +3324,7 @@
         <v>128</v>
       </c>
       <c r="B27" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C27" t="b">
         <v>0</v>
@@ -3332,10 +3332,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B28" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C28" t="b">
         <v>0</v>
@@ -3354,10 +3354,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B30" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C30" t="b">
         <v>0</v>
@@ -3376,10 +3376,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B32" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C32" t="b">
         <v>0</v>
@@ -3431,10 +3431,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B37" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C37" t="b">
         <v>0</v>
@@ -3464,10 +3464,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B40" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C40" t="b">
         <v>0</v>
@@ -3541,7 +3541,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B47" t="s">
         <v>129</v>
@@ -3552,10 +3552,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B48" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C48" t="b">
         <v>0</v>
@@ -3574,10 +3574,10 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B50" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C50" t="b">
         <v>0</v>
@@ -3585,10 +3585,10 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="19" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B53" s="19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C53" t="b">
         <v>0</v>
@@ -3597,10 +3597,10 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B54" s="19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C54" t="b">
         <v>0</v>
@@ -3608,10 +3608,10 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C55" t="b">
         <v>0</v>
@@ -3619,10 +3619,10 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B56" s="19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C56" t="b">
         <v>0</v>
@@ -3630,10 +3630,10 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C57" t="b">
         <v>0</v>
@@ -3641,10 +3641,10 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B58" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C58" t="b">
         <v>0</v>
@@ -3652,10 +3652,10 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B59" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C59" t="b">
         <v>0</v>
@@ -3663,10 +3663,10 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C60" t="b">
         <v>0</v>

--- a/app/config/tables/MIF/forms/MIF_LV/MIF_LV.xlsx
+++ b/app/config/tables/MIF/forms/MIF_LV/MIF_LV.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F71F9F46-AB02-485B-A4DC-A4AA3AAE1CAB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{625040EF-2A8D-4400-812C-1386D2359BB6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -462,9 +462,6 @@
     <t>REGDIA</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
     <t>branch_label</t>
   </si>
   <si>
@@ -570,12 +567,6 @@
     <t>linked_table</t>
   </si>
   <si>
-    <t>ID = ?</t>
-  </si>
-  <si>
-    <t>[data('ID')]</t>
-  </si>
-  <si>
     <t>{}</t>
   </si>
   <si>
@@ -723,9 +714,6 @@
     <t>linked_pregnant</t>
   </si>
   <si>
-    <t>{ID: data('ID'), LASTVISIT: data('LASTVISIT'), CICA:data('CICA'), CONSENTSIG:data('CONSENTSIG'), GRCORE: data('GR')}</t>
-  </si>
-  <si>
     <t>SCAR</t>
   </si>
   <si>
@@ -739,6 +727,18 @@
   </si>
   <si>
     <t>MIF_VISIT</t>
+  </si>
+  <si>
+    <t>REGID = ?</t>
+  </si>
+  <si>
+    <t>[data('REGID')]</t>
+  </si>
+  <si>
+    <t>{REGID: data('REGID'), LASTVISIT: data('LASTVISIT'), CICA:data('CICA'), CONSENTSIG:data('CONSENTSIG'), GRCORE: data('GR')}</t>
+  </si>
+  <si>
+    <t>REGID</t>
   </si>
 </sst>
 </file>
@@ -1174,13 +1174,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>18</v>
@@ -1191,7 +1191,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1215,10 +1215,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1234,7 +1234,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E7" t="s">
         <v>19</v>
@@ -1245,10 +1245,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>168</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -1281,7 +1281,7 @@
   <sheetData>
     <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>6</v>
@@ -1299,7 +1299,7 @@
         <v>10</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>11</v>
@@ -1316,21 +1316,21 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="H3" s="20" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1347,90 +1347,90 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D7" s="13" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D8" s="14" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E8" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F8" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D9" s="14" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E9" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F9" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D10" s="14" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E10" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F10" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D11" s="14" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E11" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F11" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D12" s="13" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E12" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F12" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D13" s="14" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E13" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F13" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D14" s="14" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E14" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F14" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1450,7 +1450,7 @@
         <v>135</v>
       </c>
       <c r="C17" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D17" s="14"/>
     </row>
@@ -1459,10 +1459,10 @@
         <v>137</v>
       </c>
       <c r="F18" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I18" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1492,7 +1492,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1510,58 +1510,58 @@
   <sheetData>
     <row r="1" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="C1" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="D1" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="E1" s="18" t="s">
         <v>173</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="F1" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="G1" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="H1" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="H1" s="17" t="s">
-        <v>177</v>
-      </c>
       <c r="I1" s="18" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="J1" s="17"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="C2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="H2" s="11" t="s">
         <v>178</v>
-      </c>
-      <c r="C2" t="s">
-        <v>235</v>
-      </c>
-      <c r="D2" t="s">
-        <v>235</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>181</v>
       </c>
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
@@ -1580,234 +1580,234 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C4" t="s">
+        <v>231</v>
+      </c>
+      <c r="D4" t="s">
+        <v>231</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="G4" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="C4" t="s">
-        <v>235</v>
-      </c>
-      <c r="D4" t="s">
-        <v>235</v>
-      </c>
-      <c r="E4" t="s">
-        <v>179</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>181</v>
-      </c>
       <c r="H4" s="11" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="I4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C5" t="s">
+        <v>227</v>
+      </c>
+      <c r="D5" t="s">
+        <v>227</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="G5" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="C5" t="s">
-        <v>231</v>
-      </c>
-      <c r="D5" t="s">
-        <v>231</v>
-      </c>
-      <c r="E5" t="s">
-        <v>179</v>
-      </c>
-      <c r="F5" t="s">
-        <v>180</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>181</v>
-      </c>
       <c r="H5" s="9" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="I5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C6" t="s">
+        <v>231</v>
+      </c>
+      <c r="D6" t="s">
+        <v>231</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="G6" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="C6" t="s">
-        <v>235</v>
-      </c>
-      <c r="D6" t="s">
-        <v>235</v>
-      </c>
-      <c r="E6" t="s">
-        <v>179</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>181</v>
-      </c>
       <c r="H6" s="11" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="I6" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C7" t="s">
+        <v>231</v>
+      </c>
+      <c r="D7" t="s">
+        <v>231</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="G7" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="C7" t="s">
-        <v>235</v>
-      </c>
-      <c r="D7" t="s">
-        <v>235</v>
-      </c>
-      <c r="E7" t="s">
-        <v>179</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>181</v>
-      </c>
       <c r="H7" s="11" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B8" t="s">
+        <v>177</v>
+      </c>
+      <c r="C8" t="s">
+        <v>231</v>
+      </c>
+      <c r="D8" t="s">
+        <v>231</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="G8" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="C8" t="s">
-        <v>235</v>
-      </c>
-      <c r="D8" t="s">
-        <v>235</v>
-      </c>
-      <c r="E8" t="s">
-        <v>179</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>181</v>
-      </c>
       <c r="H8" s="11" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B9" t="s">
+        <v>177</v>
+      </c>
+      <c r="C9" t="s">
+        <v>231</v>
+      </c>
+      <c r="D9" t="s">
+        <v>231</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="G9" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="C9" t="s">
-        <v>235</v>
-      </c>
-      <c r="D9" t="s">
-        <v>235</v>
-      </c>
-      <c r="E9" t="s">
-        <v>179</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>181</v>
-      </c>
       <c r="H9" s="11" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B10" t="s">
+        <v>177</v>
+      </c>
+      <c r="C10" t="s">
+        <v>231</v>
+      </c>
+      <c r="D10" t="s">
+        <v>231</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="G10" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="C10" t="s">
-        <v>235</v>
-      </c>
-      <c r="D10" t="s">
-        <v>235</v>
-      </c>
-      <c r="E10" t="s">
-        <v>179</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>181</v>
-      </c>
       <c r="H10" s="11" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B11" t="s">
+        <v>177</v>
+      </c>
+      <c r="C11" t="s">
+        <v>231</v>
+      </c>
+      <c r="D11" t="s">
+        <v>231</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="G11" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="C11" t="s">
-        <v>235</v>
-      </c>
-      <c r="D11" t="s">
-        <v>235</v>
-      </c>
-      <c r="E11" t="s">
-        <v>179</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>181</v>
-      </c>
       <c r="H11" s="11" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -2140,21 +2140,21 @@
   <sheetData>
     <row r="1" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>8</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>127</v>
@@ -2164,7 +2164,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>24</v>
@@ -2174,16 +2174,16 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B4" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C4" t="s">
         <v>127</v>
       </c>
       <c r="D4" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -2216,7 +2216,7 @@
         <v>15</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>16</v>
@@ -2938,67 +2938,67 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B51" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C51" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D51" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B52" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C52" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D52" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B53" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C53" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D53" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B54" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C54" t="s">
+        <v>163</v>
+      </c>
+      <c r="D54" t="s">
         <v>164</v>
-      </c>
-      <c r="D54" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B55" t="str">
         <f>"5"</f>
@@ -3046,7 +3046,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B2" t="s">
         <v>24</v>
@@ -3057,10 +3057,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
@@ -3123,10 +3123,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B9" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C9" t="b">
         <v>0</v>
@@ -3134,7 +3134,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
@@ -3178,7 +3178,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B14" t="s">
         <v>24</v>
@@ -3189,10 +3189,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B15" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C15" t="b">
         <v>0</v>
@@ -3200,7 +3200,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B16" t="s">
         <v>129</v>
@@ -3211,7 +3211,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B17" t="s">
         <v>24</v>
@@ -3222,7 +3222,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B18" t="s">
         <v>129</v>
@@ -3233,7 +3233,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B19" t="s">
         <v>123</v>
@@ -3244,7 +3244,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="B20" t="s">
         <v>24</v>
@@ -3255,7 +3255,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>126</v>
+        <v>152</v>
       </c>
       <c r="B21" t="s">
         <v>24</v>
@@ -3266,10 +3266,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>153</v>
+        <v>215</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>206</v>
       </c>
       <c r="C22" t="b">
         <v>0</v>
@@ -3277,10 +3277,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>218</v>
+        <v>154</v>
       </c>
       <c r="B23" t="s">
-        <v>209</v>
+        <v>137</v>
       </c>
       <c r="C23" t="b">
         <v>0</v>
@@ -3288,18 +3288,18 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>155</v>
+        <v>33</v>
       </c>
       <c r="B24" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B25" t="s">
         <v>129</v>
@@ -3310,21 +3310,21 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>128</v>
       </c>
       <c r="B26" t="s">
-        <v>129</v>
+        <v>216</v>
       </c>
       <c r="C26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>128</v>
+        <v>208</v>
       </c>
       <c r="B27" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="C27" t="b">
         <v>0</v>
@@ -3332,10 +3332,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>211</v>
+        <v>131</v>
       </c>
       <c r="B28" t="s">
-        <v>209</v>
+        <v>123</v>
       </c>
       <c r="C28" t="b">
         <v>0</v>
@@ -3343,10 +3343,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>131</v>
+        <v>209</v>
       </c>
       <c r="B29" t="s">
-        <v>123</v>
+        <v>206</v>
       </c>
       <c r="C29" t="b">
         <v>0</v>
@@ -3354,10 +3354,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>212</v>
+        <v>133</v>
       </c>
       <c r="B30" t="s">
-        <v>209</v>
+        <v>123</v>
       </c>
       <c r="C30" t="b">
         <v>0</v>
@@ -3365,10 +3365,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>133</v>
+        <v>210</v>
       </c>
       <c r="B31" t="s">
-        <v>123</v>
+        <v>206</v>
       </c>
       <c r="C31" t="b">
         <v>0</v>
@@ -3376,10 +3376,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>213</v>
+        <v>132</v>
       </c>
       <c r="B32" t="s">
-        <v>209</v>
+        <v>129</v>
       </c>
       <c r="C32" t="b">
         <v>0</v>
@@ -3387,10 +3387,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="B33" t="s">
-        <v>129</v>
+        <v>24</v>
       </c>
       <c r="C33" t="b">
         <v>0</v>
@@ -3398,7 +3398,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B34" t="s">
         <v>24</v>
@@ -3409,7 +3409,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="B35" t="s">
         <v>24</v>
@@ -3420,10 +3420,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>148</v>
+        <v>211</v>
       </c>
       <c r="B36" t="s">
-        <v>24</v>
+        <v>206</v>
       </c>
       <c r="C36" t="b">
         <v>0</v>
@@ -3431,10 +3431,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>214</v>
+        <v>124</v>
       </c>
       <c r="B37" t="s">
-        <v>209</v>
+        <v>123</v>
       </c>
       <c r="C37" t="b">
         <v>0</v>
@@ -3442,10 +3442,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="B38" t="s">
-        <v>123</v>
+        <v>24</v>
       </c>
       <c r="C38" t="b">
         <v>0</v>
@@ -3453,10 +3453,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>145</v>
+        <v>212</v>
       </c>
       <c r="B39" t="s">
-        <v>24</v>
+        <v>206</v>
       </c>
       <c r="C39" t="b">
         <v>0</v>
@@ -3464,10 +3464,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>215</v>
+        <v>118</v>
       </c>
       <c r="B40" t="s">
-        <v>209</v>
+        <v>117</v>
       </c>
       <c r="C40" t="b">
         <v>0</v>
@@ -3475,10 +3475,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="B41" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C41" t="b">
         <v>0</v>
@@ -3486,10 +3486,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>142</v>
+        <v>235</v>
       </c>
       <c r="B42" t="s">
-        <v>127</v>
+        <v>24</v>
       </c>
       <c r="C42" t="b">
         <v>0</v>
@@ -3508,7 +3508,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B44" t="s">
         <v>123</v>
@@ -3530,7 +3530,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B46" t="s">
         <v>24</v>
@@ -3541,7 +3541,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B47" t="s">
         <v>129</v>
@@ -3552,10 +3552,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B48" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C48" t="b">
         <v>0</v>
@@ -3563,7 +3563,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B49" t="s">
         <v>24</v>
@@ -3574,10 +3574,10 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B50" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C50" t="b">
         <v>0</v>
@@ -3585,10 +3585,10 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="19" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B53" s="19" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C53" t="b">
         <v>0</v>
@@ -3597,10 +3597,10 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B54" s="19" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C54" t="b">
         <v>0</v>
@@ -3608,10 +3608,10 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C55" t="b">
         <v>0</v>
@@ -3619,10 +3619,10 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B56" s="19" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C56" t="b">
         <v>0</v>
@@ -3630,10 +3630,10 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C57" t="b">
         <v>0</v>
@@ -3641,10 +3641,10 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>203</v>
-      </c>
-      <c r="B58" s="14" t="s">
-        <v>185</v>
+        <v>200</v>
+      </c>
+      <c r="B58" s="19" t="s">
+        <v>182</v>
       </c>
       <c r="C58" t="b">
         <v>0</v>
@@ -3652,10 +3652,10 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>228</v>
-      </c>
-      <c r="B59" s="14" t="s">
-        <v>185</v>
+        <v>225</v>
+      </c>
+      <c r="B59" s="19" t="s">
+        <v>182</v>
       </c>
       <c r="C59" t="b">
         <v>0</v>
@@ -3663,10 +3663,10 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>181</v>
+      </c>
+      <c r="B60" s="13" t="s">
         <v>184</v>
-      </c>
-      <c r="B60" s="13" t="s">
-        <v>187</v>
       </c>
       <c r="C60" t="b">
         <v>0</v>

--- a/app/config/tables/MIF/forms/MIF_LV/MIF_LV.xlsx
+++ b/app/config/tables/MIF/forms/MIF_LV/MIF_LV.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{625040EF-2A8D-4400-812C-1386D2359BB6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{105860A4-55B9-4789-AB96-12D71EA841D0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -645,9 +645,6 @@
     <t>CONSENTFOR</t>
   </si>
   <si>
-    <t>Visit interview with {{data.NOMEMAE}} and ID: {{data.ID}}</t>
-  </si>
-  <si>
     <t>ABNS</t>
   </si>
   <si>
@@ -739,6 +736,9 @@
   </si>
   <si>
     <t>REGID</t>
+  </si>
+  <si>
+    <t>Visit interview with {{data.NOMEMAE}} and ID: {{data.REGID}}</t>
   </si>
 </sst>
 </file>
@@ -1174,13 +1174,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>18</v>
@@ -1191,7 +1191,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1215,10 +1215,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
+        <v>227</v>
+      </c>
+      <c r="D5" s="20" t="s">
         <v>228</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1234,7 +1234,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E7" t="s">
         <v>19</v>
@@ -1261,9 +1261,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F97EDFF-72E2-4781-A226-FCA8C7C63015}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7:D9"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1299,7 +1299,7 @@
         <v>10</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>11</v>
@@ -1319,10 +1319,10 @@
         <v>155</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="H3" s="20" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1427,10 +1427,10 @@
         <v>182</v>
       </c>
       <c r="E14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1490,7 +1490,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7656AD7B-1D25-49AF-8239-544F03B0CB49}">
   <dimension ref="A1:J72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
@@ -1546,19 +1546,19 @@
         <v>177</v>
       </c>
       <c r="C2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="D2" t="s">
-        <v>231</v>
-      </c>
-      <c r="E2" s="10" t="s">
+      <c r="F2" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="G2" s="10" t="s">
         <v>233</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>234</v>
       </c>
       <c r="H2" s="11" t="s">
         <v>178</v>
@@ -1586,16 +1586,16 @@
         <v>177</v>
       </c>
       <c r="C4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="D4" t="s">
-        <v>231</v>
-      </c>
-      <c r="E4" s="10" t="s">
+      <c r="F4" s="10" t="s">
         <v>232</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>233</v>
       </c>
       <c r="G4" s="11" t="s">
         <v>178</v>
@@ -1615,16 +1615,16 @@
         <v>177</v>
       </c>
       <c r="C5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E5" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="F5" s="10" t="s">
         <v>232</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>233</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>178</v>
@@ -1644,16 +1644,16 @@
         <v>177</v>
       </c>
       <c r="C6" t="s">
+        <v>230</v>
+      </c>
+      <c r="D6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="D6" t="s">
-        <v>231</v>
-      </c>
-      <c r="E6" s="10" t="s">
+      <c r="F6" s="10" t="s">
         <v>232</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>233</v>
       </c>
       <c r="G6" s="11" t="s">
         <v>178</v>
@@ -1673,16 +1673,16 @@
         <v>177</v>
       </c>
       <c r="C7" t="s">
+        <v>230</v>
+      </c>
+      <c r="D7" t="s">
+        <v>230</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="D7" t="s">
-        <v>231</v>
-      </c>
-      <c r="E7" s="10" t="s">
+      <c r="F7" s="10" t="s">
         <v>232</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>233</v>
       </c>
       <c r="G7" s="11" t="s">
         <v>178</v>
@@ -1702,16 +1702,16 @@
         <v>177</v>
       </c>
       <c r="C8" t="s">
+        <v>230</v>
+      </c>
+      <c r="D8" t="s">
+        <v>230</v>
+      </c>
+      <c r="E8" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="D8" t="s">
-        <v>231</v>
-      </c>
-      <c r="E8" s="10" t="s">
+      <c r="F8" s="10" t="s">
         <v>232</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>233</v>
       </c>
       <c r="G8" s="10" t="s">
         <v>178</v>
@@ -1731,16 +1731,16 @@
         <v>177</v>
       </c>
       <c r="C9" t="s">
+        <v>230</v>
+      </c>
+      <c r="D9" t="s">
+        <v>230</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="D9" t="s">
-        <v>231</v>
-      </c>
-      <c r="E9" s="10" t="s">
+      <c r="F9" s="10" t="s">
         <v>232</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>233</v>
       </c>
       <c r="G9" s="10" t="s">
         <v>178</v>
@@ -1760,16 +1760,16 @@
         <v>177</v>
       </c>
       <c r="C10" t="s">
+        <v>230</v>
+      </c>
+      <c r="D10" t="s">
+        <v>230</v>
+      </c>
+      <c r="E10" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="D10" t="s">
-        <v>231</v>
-      </c>
-      <c r="E10" s="10" t="s">
+      <c r="F10" s="10" t="s">
         <v>232</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>233</v>
       </c>
       <c r="G10" s="10" t="s">
         <v>178</v>
@@ -1783,22 +1783,22 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B11" t="s">
         <v>177</v>
       </c>
       <c r="C11" t="s">
+        <v>230</v>
+      </c>
+      <c r="D11" t="s">
+        <v>230</v>
+      </c>
+      <c r="E11" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="D11" t="s">
-        <v>231</v>
-      </c>
-      <c r="E11" s="10" t="s">
+      <c r="F11" s="10" t="s">
         <v>232</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>233</v>
       </c>
       <c r="G11" s="10" t="s">
         <v>178</v>
@@ -1807,7 +1807,7 @@
         <v>178</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -2174,16 +2174,16 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B4" t="s">
         <v>216</v>
-      </c>
-      <c r="B4" t="s">
-        <v>217</v>
       </c>
       <c r="C4" t="s">
         <v>127</v>
       </c>
       <c r="D4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -2216,7 +2216,7 @@
         <v>15</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>16</v>
@@ -3021,9 +3021,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCD3AC6-97A9-4343-AD51-53B42E3E4B29}">
   <dimension ref="A1:D122"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="A1:C1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3057,10 +3057,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B3" t="s">
         <v>205</v>
-      </c>
-      <c r="B3" t="s">
-        <v>206</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
@@ -3123,10 +3123,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C9" t="b">
         <v>0</v>
@@ -3189,10 +3189,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C15" t="b">
         <v>0</v>
@@ -3266,10 +3266,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B22" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C22" t="b">
         <v>0</v>
@@ -3313,7 +3313,7 @@
         <v>128</v>
       </c>
       <c r="B26" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C26" t="b">
         <v>0</v>
@@ -3321,10 +3321,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B27" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C27" t="b">
         <v>0</v>
@@ -3343,10 +3343,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B29" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C29" t="b">
         <v>0</v>
@@ -3365,10 +3365,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B31" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C31" t="b">
         <v>0</v>
@@ -3420,10 +3420,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B36" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C36" t="b">
         <v>0</v>
@@ -3453,10 +3453,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B39" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C39" t="b">
         <v>0</v>
@@ -3486,10 +3486,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B42" t="s">
-        <v>24</v>
+        <v>123</v>
       </c>
       <c r="C42" t="b">
         <v>0</v>
@@ -3541,7 +3541,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B47" t="s">
         <v>129</v>
@@ -3552,10 +3552,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B48" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C48" t="b">
         <v>0</v>
@@ -3574,10 +3574,10 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B50" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C50" t="b">
         <v>0</v>
@@ -3652,7 +3652,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B59" s="19" t="s">
         <v>182</v>

--- a/app/config/tables/MIF/forms/MIF_LV/MIF_LV.xlsx
+++ b/app/config/tables/MIF/forms/MIF_LV/MIF_LV.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{105860A4-55B9-4789-AB96-12D71EA841D0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{487A71A8-21E0-4676-9119-090DE4D45F24}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="235">
   <si>
     <t>setting_name</t>
   </si>
@@ -423,9 +423,6 @@
     <t>select_one</t>
   </si>
   <si>
-    <t>CNASCCERTO</t>
-  </si>
-  <si>
     <t>MIFMAE</t>
   </si>
   <si>
@@ -645,39 +642,9 @@
     <t>CONSENTFOR</t>
   </si>
   <si>
-    <t>ABNS</t>
-  </si>
-  <si>
     <t>select_multiple</t>
   </si>
   <si>
-    <t>FALNS</t>
-  </si>
-  <si>
-    <t>MIFDNASCNS</t>
-  </si>
-  <si>
-    <t>MIFMAENS</t>
-  </si>
-  <si>
-    <t>MIFMONDENS</t>
-  </si>
-  <si>
-    <t>NMNS</t>
-  </si>
-  <si>
-    <t>PARTNS</t>
-  </si>
-  <si>
-    <t>VACNOHNS</t>
-  </si>
-  <si>
-    <t>VIVONS</t>
-  </si>
-  <si>
-    <t>IDFANNS</t>
-  </si>
-  <si>
     <t>custom_date</t>
   </si>
   <si>
@@ -687,9 +654,6 @@
     <t>Makes the date widget DD/MM/YYYY</t>
   </si>
   <si>
-    <t>ESCONS</t>
-  </si>
-  <si>
     <t>english</t>
   </si>
   <si>
@@ -739,6 +703,39 @@
   </si>
   <si>
     <t>Visit interview with {{data.NOMEMAE}} and ID: {{data.REGID}}</t>
+  </si>
+  <si>
+    <t>mifmaens</t>
+  </si>
+  <si>
+    <t>mifmondens</t>
+  </si>
+  <si>
+    <t>escons</t>
+  </si>
+  <si>
+    <t>abns</t>
+  </si>
+  <si>
+    <t>falns</t>
+  </si>
+  <si>
+    <t>idfanns</t>
+  </si>
+  <si>
+    <t>adate</t>
+  </si>
+  <si>
+    <t>nmns</t>
+  </si>
+  <si>
+    <t>partns</t>
+  </si>
+  <si>
+    <t>vacnohns</t>
+  </si>
+  <si>
+    <t>vivons</t>
   </si>
 </sst>
 </file>
@@ -1174,13 +1171,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>18</v>
@@ -1191,7 +1188,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1215,10 +1212,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1234,7 +1231,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="E7" t="s">
         <v>19</v>
@@ -1245,10 +1242,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>167</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -1281,7 +1278,7 @@
   <sheetData>
     <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>6</v>
@@ -1299,13 +1296,13 @@
         <v>10</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>11</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -1316,21 +1313,21 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="H3" s="20" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1347,90 +1344,90 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D7" s="13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D8" s="14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E8" t="s">
+        <v>188</v>
+      </c>
+      <c r="F8" t="s">
         <v>189</v>
-      </c>
-      <c r="F8" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D9" s="14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D10" s="14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E10" t="s">
+        <v>201</v>
+      </c>
+      <c r="F10" t="s">
         <v>202</v>
-      </c>
-      <c r="F10" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D11" s="14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D12" s="13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D13" s="14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F13" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D14" s="14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E14" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="F14" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1447,27 +1444,27 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C17" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D17" s="14"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D18" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F18" t="s">
+        <v>194</v>
+      </c>
+      <c r="I18" t="s">
         <v>195</v>
-      </c>
-      <c r="I18" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D19" s="14"/>
     </row>
@@ -1510,58 +1507,58 @@
   <sheetData>
     <row r="1" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="C1" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="D1" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="E1" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="F1" s="18" t="s">
         <v>173</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="G1" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="H1" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="H1" s="17" t="s">
-        <v>176</v>
-      </c>
       <c r="I1" s="18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J1" s="17"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="C2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="H2" s="11" t="s">
         <v>177</v>
-      </c>
-      <c r="C2" t="s">
-        <v>230</v>
-      </c>
-      <c r="D2" t="s">
-        <v>230</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>178</v>
       </c>
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
@@ -1580,234 +1577,234 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C4" t="s">
+        <v>218</v>
+      </c>
+      <c r="D4" t="s">
+        <v>218</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="G4" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="C4" t="s">
-        <v>230</v>
-      </c>
-      <c r="D4" t="s">
-        <v>230</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>178</v>
-      </c>
       <c r="H4" s="11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C5" t="s">
+        <v>214</v>
+      </c>
+      <c r="D5" t="s">
+        <v>214</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="I5" t="s">
         <v>189</v>
-      </c>
-      <c r="B5" t="s">
-        <v>177</v>
-      </c>
-      <c r="C5" t="s">
-        <v>226</v>
-      </c>
-      <c r="D5" t="s">
-        <v>226</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="I5" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B6" t="s">
+        <v>176</v>
+      </c>
+      <c r="C6" t="s">
+        <v>218</v>
+      </c>
+      <c r="D6" t="s">
+        <v>218</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="G6" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="C6" t="s">
-        <v>230</v>
-      </c>
-      <c r="D6" t="s">
-        <v>230</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>178</v>
-      </c>
       <c r="H6" s="11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>201</v>
+      </c>
+      <c r="B7" t="s">
+        <v>176</v>
+      </c>
+      <c r="C7" t="s">
+        <v>218</v>
+      </c>
+      <c r="D7" t="s">
+        <v>218</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="I7" s="10" t="s">
         <v>202</v>
-      </c>
-      <c r="B7" t="s">
-        <v>177</v>
-      </c>
-      <c r="C7" t="s">
-        <v>230</v>
-      </c>
-      <c r="D7" t="s">
-        <v>230</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B8" t="s">
+        <v>176</v>
+      </c>
+      <c r="C8" t="s">
+        <v>218</v>
+      </c>
+      <c r="D8" t="s">
+        <v>218</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="G8" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="C8" t="s">
-        <v>230</v>
-      </c>
-      <c r="D8" t="s">
-        <v>230</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>178</v>
-      </c>
       <c r="H8" s="11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B9" t="s">
+        <v>176</v>
+      </c>
+      <c r="C9" t="s">
+        <v>218</v>
+      </c>
+      <c r="D9" t="s">
+        <v>218</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="G9" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="C9" t="s">
-        <v>230</v>
-      </c>
-      <c r="D9" t="s">
-        <v>230</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>178</v>
-      </c>
       <c r="H9" s="11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B10" t="s">
+        <v>176</v>
+      </c>
+      <c r="C10" t="s">
+        <v>218</v>
+      </c>
+      <c r="D10" t="s">
+        <v>218</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="G10" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="C10" t="s">
-        <v>230</v>
-      </c>
-      <c r="D10" t="s">
-        <v>230</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>178</v>
-      </c>
       <c r="H10" s="11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="B11" t="s">
+        <v>176</v>
+      </c>
+      <c r="C11" t="s">
+        <v>218</v>
+      </c>
+      <c r="D11" t="s">
+        <v>218</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="G11" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="C11" t="s">
-        <v>230</v>
-      </c>
-      <c r="D11" t="s">
-        <v>230</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>178</v>
-      </c>
       <c r="H11" s="11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -2140,21 +2137,21 @@
   <sheetData>
     <row r="1" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>8</v>
       </c>
       <c r="C1" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="D1" s="17" t="s">
         <v>186</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>127</v>
@@ -2164,7 +2161,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>24</v>
@@ -2174,16 +2171,16 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="B4" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="C4" t="s">
         <v>127</v>
       </c>
       <c r="D4" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -2216,7 +2213,7 @@
         <v>15</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>16</v>
@@ -2938,67 +2935,67 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B51" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C51" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D51" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B52" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C52" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D52" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B53" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C53" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D53" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B54" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C54" t="s">
+        <v>162</v>
+      </c>
+      <c r="D54" t="s">
         <v>163</v>
-      </c>
-      <c r="D54" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B55" t="str">
         <f>"5"</f>
@@ -3019,11 +3016,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCD3AC6-97A9-4343-AD51-53B42E3E4B29}">
-  <dimension ref="A1:D122"/>
+  <dimension ref="A1:D121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B45" sqref="B45"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3046,7 +3043,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B2" t="s">
         <v>24</v>
@@ -3057,13 +3054,13 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>204</v>
+        <v>227</v>
       </c>
       <c r="B3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -3090,7 +3087,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B6" t="s">
         <v>129</v>
@@ -3101,10 +3098,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="B7" t="s">
-        <v>129</v>
+        <v>24</v>
       </c>
       <c r="C7" t="b">
         <v>0</v>
@@ -3112,21 +3109,21 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>141</v>
+        <v>226</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>203</v>
       </c>
       <c r="C8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
       <c r="B9" t="s">
-        <v>205</v>
+        <v>24</v>
       </c>
       <c r="C9" t="b">
         <v>0</v>
@@ -3134,10 +3131,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>136</v>
       </c>
       <c r="C10" t="b">
         <v>0</v>
@@ -3145,18 +3142,18 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>138</v>
+        <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="C11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="B12" t="s">
         <v>117</v>
@@ -3167,32 +3164,32 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>67</v>
+        <v>145</v>
       </c>
       <c r="B13" t="s">
-        <v>117</v>
+        <v>24</v>
       </c>
       <c r="C13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>146</v>
+        <v>228</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>203</v>
       </c>
       <c r="C14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>206</v>
+        <v>150</v>
       </c>
       <c r="B15" t="s">
-        <v>205</v>
+        <v>129</v>
       </c>
       <c r="C15" t="b">
         <v>0</v>
@@ -3200,10 +3197,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B16" t="s">
-        <v>129</v>
+        <v>24</v>
       </c>
       <c r="C16" t="b">
         <v>0</v>
@@ -3211,10 +3208,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>129</v>
       </c>
       <c r="C17" t="b">
         <v>0</v>
@@ -3225,7 +3222,7 @@
         <v>149</v>
       </c>
       <c r="B18" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
@@ -3233,10 +3230,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="B19" t="s">
-        <v>123</v>
+        <v>24</v>
       </c>
       <c r="C19" t="b">
         <v>0</v>
@@ -3244,7 +3241,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="B20" t="s">
         <v>24</v>
@@ -3255,21 +3252,21 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>152</v>
+        <v>229</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>203</v>
       </c>
       <c r="C21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>214</v>
+        <v>153</v>
       </c>
       <c r="B22" t="s">
-        <v>205</v>
+        <v>136</v>
       </c>
       <c r="C22" t="b">
         <v>0</v>
@@ -3277,18 +3274,18 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>154</v>
+        <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B24" t="s">
         <v>129</v>
@@ -3299,21 +3296,21 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>128</v>
       </c>
       <c r="B25" t="s">
-        <v>129</v>
+        <v>230</v>
       </c>
       <c r="C25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B26" t="s">
-        <v>215</v>
+        <v>123</v>
       </c>
       <c r="C26" t="b">
         <v>0</v>
@@ -3321,18 +3318,18 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="B27" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B28" t="s">
         <v>123</v>
@@ -3343,21 +3340,21 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="B29" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B30" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="C30" t="b">
         <v>0</v>
@@ -3365,10 +3362,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>209</v>
+        <v>120</v>
       </c>
       <c r="B31" t="s">
-        <v>205</v>
+        <v>24</v>
       </c>
       <c r="C31" t="b">
         <v>0</v>
@@ -3376,10 +3373,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B32" t="s">
-        <v>129</v>
+        <v>24</v>
       </c>
       <c r="C32" t="b">
         <v>0</v>
@@ -3387,7 +3384,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>120</v>
+        <v>146</v>
       </c>
       <c r="B33" t="s">
         <v>24</v>
@@ -3398,21 +3395,21 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>125</v>
+        <v>231</v>
       </c>
       <c r="B34" t="s">
-        <v>24</v>
+        <v>203</v>
       </c>
       <c r="C34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="B35" t="s">
-        <v>24</v>
+        <v>123</v>
       </c>
       <c r="C35" t="b">
         <v>0</v>
@@ -3420,10 +3417,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>210</v>
+        <v>143</v>
       </c>
       <c r="B36" t="s">
-        <v>205</v>
+        <v>24</v>
       </c>
       <c r="C36" t="b">
         <v>0</v>
@@ -3431,21 +3428,21 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>124</v>
+        <v>232</v>
       </c>
       <c r="B37" t="s">
-        <v>123</v>
+        <v>203</v>
       </c>
       <c r="C37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>144</v>
+        <v>118</v>
       </c>
       <c r="B38" t="s">
-        <v>24</v>
+        <v>117</v>
       </c>
       <c r="C38" t="b">
         <v>0</v>
@@ -3453,10 +3450,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>211</v>
+        <v>141</v>
       </c>
       <c r="B39" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="C39" t="b">
         <v>0</v>
@@ -3464,10 +3461,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>118</v>
+        <v>222</v>
       </c>
       <c r="B40" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C40" t="b">
         <v>0</v>
@@ -3475,10 +3472,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="B41" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="C41" t="b">
         <v>0</v>
@@ -3486,7 +3483,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>234</v>
+        <v>156</v>
       </c>
       <c r="B42" t="s">
         <v>123</v>
@@ -3497,7 +3494,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="B43" t="s">
         <v>117</v>
@@ -3508,10 +3505,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B44" t="s">
-        <v>123</v>
+        <v>24</v>
       </c>
       <c r="C44" t="b">
         <v>0</v>
@@ -3519,10 +3516,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>119</v>
+        <v>211</v>
       </c>
       <c r="B45" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="C45" t="b">
         <v>0</v>
@@ -3530,21 +3527,21 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>153</v>
+        <v>233</v>
       </c>
       <c r="B46" t="s">
-        <v>24</v>
+        <v>203</v>
       </c>
       <c r="C46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>223</v>
+        <v>144</v>
       </c>
       <c r="B47" t="s">
-        <v>129</v>
+        <v>24</v>
       </c>
       <c r="C47" t="b">
         <v>0</v>
@@ -3552,43 +3549,43 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="B48" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C48" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>145</v>
-      </c>
-      <c r="B49" t="s">
-        <v>24</v>
-      </c>
-      <c r="C49" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>213</v>
-      </c>
-      <c r="B50" t="s">
-        <v>205</v>
-      </c>
-      <c r="C50" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="B51" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="C51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>202</v>
+      </c>
+      <c r="B52" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="C52" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="19" t="s">
+      <c r="A53" t="s">
         <v>190</v>
       </c>
       <c r="B53" s="19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C53" t="b">
         <v>0</v>
@@ -3597,10 +3594,10 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="B54" s="19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C54" t="b">
         <v>0</v>
@@ -3608,10 +3605,10 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>191</v>
-      </c>
-      <c r="B55" s="19" t="s">
-        <v>182</v>
+        <v>198</v>
+      </c>
+      <c r="B55" s="13" t="s">
+        <v>183</v>
       </c>
       <c r="C55" t="b">
         <v>0</v>
@@ -3619,10 +3616,10 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="B56" s="19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C56" t="b">
         <v>0</v>
@@ -3630,10 +3627,10 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>199</v>
-      </c>
-      <c r="B57" s="13" t="s">
-        <v>184</v>
+        <v>212</v>
+      </c>
+      <c r="B57" s="19" t="s">
+        <v>181</v>
       </c>
       <c r="C57" t="b">
         <v>0</v>
@@ -3641,36 +3638,17 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>200</v>
-      </c>
-      <c r="B58" s="19" t="s">
-        <v>182</v>
+        <v>180</v>
+      </c>
+      <c r="B58" s="13" t="s">
+        <v>183</v>
       </c>
       <c r="C58" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>224</v>
-      </c>
-      <c r="B59" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="C59" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>181</v>
-      </c>
-      <c r="B60" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="C60" t="b">
-        <v>0</v>
-      </c>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B62" s="19"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B63" s="19"/>
@@ -3848,9 +3826,6 @@
     </row>
     <row r="121" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B121" s="19"/>
-    </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B122" s="19"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A53:C60">
